--- a/対局者一覧_オリジナル.xlsx
+++ b/対局者一覧_オリジナル.xlsx
@@ -811,7 +811,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -862,7 +862,7 @@
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7"/>
@@ -880,7 +880,7 @@
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8"/>
@@ -901,7 +901,7 @@
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8"/>
@@ -919,7 +919,7 @@
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8"/>
@@ -940,7 +940,7 @@
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8"/>
@@ -958,7 +958,7 @@
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8"/>
@@ -979,7 +979,7 @@
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8"/>
@@ -1000,7 +1000,7 @@
       <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
@@ -1021,7 +1021,7 @@
       <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="8"/>
@@ -1042,7 +1042,7 @@
       <c r="A11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9"/>

--- a/対局者一覧_オリジナル.xlsx
+++ b/対局者一覧_オリジナル.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>１回戦</t>
   </si>
@@ -111,30 +111,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・直接対戦で勝った方が上位</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・対戦相手のSOS合計が多い方が上位（SOSOS）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・上記が同じなら同率順位としてじゃんけんによる判定とする。</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウリツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -248,6 +225,42 @@
   </si>
   <si>
     <t>〇□〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・じゃんけんによる判定とする。</t>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・直接対戦で勝った方が上位とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上記で同率順位だった場合は同順になるので序列として</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョレツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -808,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -824,10 +837,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>0</v>
@@ -855,12 +868,12 @@
       </c>
       <c r="M1" s="2"/>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
@@ -878,7 +891,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
@@ -899,7 +912,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
@@ -917,7 +930,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>7</v>
@@ -933,12 +946,12 @@
       <c r="K5" s="8"/>
       <c r="L5" s="6"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>7</v>
@@ -956,7 +969,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
@@ -977,7 +990,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>8</v>
@@ -998,7 +1011,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>8</v>
@@ -1019,7 +1032,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -1035,12 +1048,12 @@
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>10</v>
@@ -1056,12 +1069,17 @@
       <c r="K11" s="9"/>
       <c r="L11" s="5"/>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="N12" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/対局者一覧_オリジナル.xlsx
+++ b/対局者一覧_オリジナル.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+  <si>
+    <t>対局者名</t>
+  </si>
+  <si>
+    <t>棋力</t>
+  </si>
   <si>
     <t>１回戦</t>
   </si>
@@ -30,238 +36,127 @@
     <t>３回戦</t>
   </si>
   <si>
+    <t>４回戦</t>
+  </si>
+  <si>
+    <t>勝ち数</t>
+  </si>
+  <si>
     <t>SOS</t>
   </si>
   <si>
     <t>SOSOS</t>
   </si>
   <si>
+    <t>順位</t>
+  </si>
+  <si>
+    <t>棋力は段位者は〇D、級位者は〇Kと入力する。</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>勝敗は〇回戦の右側列に'〇'、'×'で入力する。</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>対戦順序は勝ち数、棋力順、登録順に割り当てる。</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>順位の決定方法</t>
+  </si>
+  <si>
+    <t>・勝ち数が多い方が上位</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>6D</t>
   </si>
   <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>勝ち数</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>順位</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>順位の決定方法</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝敗は〇回戦の右側列に'〇'、'×'で入力する。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイセン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・勝ち数が多い方が上位</t>
-    <phoneticPr fontId="1"/>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>・対戦相手の勝ち数合計（SOS）が多い方が上位</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5K</t>
   </si>
   <si>
     <t>・対戦相手のSOS合計が多い方が上位（SOSOS）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>棋力</t>
-    <rPh sb="0" eb="2">
-      <t>キリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対局者名</t>
-    <rPh sb="0" eb="2">
-      <t>タイキョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>棋力は段位者は〇D、級位者は〇Kと入力する。</t>
-    <rPh sb="0" eb="2">
-      <t>キリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キュウイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対戦順序は勝ち数、棋力順、登録順に割り当てる。</t>
-    <rPh sb="0" eb="2">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジュンジョ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇△〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇△△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△〇〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△〇△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△△〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△△△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇□〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・じゃんけんによる判定とする。</t>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・直接対戦で勝った方が上位とする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・上記で同率順位だった場合は同順になるので序列として</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウリツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>・直接対戦で勝った方が上位</t>
+  </si>
+  <si>
+    <t>・上記が同じなら同率順位としてじゃんけんによる判定とする。</t>
   </si>
 </sst>
 </file>
@@ -314,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -468,22 +363,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -528,19 +431,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -821,275 +724,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="6" max="6" width="3.75" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="1"/>
+    <col min="1" max="1" width="9.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.375" style="17" customWidth="1"/>
+    <col min="12" max="13" width="9.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="5"/>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="5"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="5"/>
+      <c r="T8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6"/>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6"/>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="3" t="s">
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="5"/>
+      <c r="T15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="5"/>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6"/>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6"/>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="N12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N13" t="s">
-        <v>32</v>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="4"/>
+      <c r="T17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="T18" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>